--- a/Unity/Assets/Config/Excel/ActionsConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionsConfig.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680" tabRatio="809" activeTab="1"/>
+    <workbookView windowWidth="20150" windowHeight="9080" tabRatio="809"/>
   </bookViews>
   <sheets>
-    <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
-    <sheet name="AIConfig_2" sheetId="7" r:id="rId2"/>
+    <sheet name="ActionConfig" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
-  <si>
-    <t>cs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -39,61 +35,112 @@
     <t>Id</t>
   </si>
   <si>
-    <t>所属ai</t>
-  </si>
-  <si>
-    <t>此ai中的顺序</t>
-  </si>
-  <si>
-    <t>节点名字</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>节点参数</t>
-  </si>
-  <si>
-    <t>AIConfigId</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>NodeParams</t>
+    <t>技能行为的类型</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Param</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>AI_Attack</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>AI_XunLuo</t>
-  </si>
-  <si>
-    <t>巡逻</t>
-  </si>
-  <si>
-    <t>技能行为的类型</t>
-  </si>
-  <si>
-    <t>Type</t>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>"-10"</t>
+  </si>
+  <si>
+    <t>"1000","12"</t>
+  </si>
+  <si>
+    <t>生成火球术的子弹</t>
+  </si>
+  <si>
+    <t>"1003","1001"</t>
+  </si>
+  <si>
+    <t>火球术-50伤害</t>
+  </si>
+  <si>
+    <t>"-50"</t>
+  </si>
+  <si>
+    <t>火球术持续向前移动</t>
+  </si>
+  <si>
+    <t>"10"</t>
+  </si>
+  <si>
+    <t>生成虚空法球</t>
+  </si>
+  <si>
+    <t>"1004","1002"</t>
+  </si>
+  <si>
+    <t>吸引附近目标</t>
+  </si>
+  <si>
+    <t>"0.1"</t>
+  </si>
+  <si>
+    <t>虚空法球-5伤害</t>
+  </si>
+  <si>
+    <t>"-5"</t>
+  </si>
+  <si>
+    <t>冲锋向前移动</t>
+  </si>
+  <si>
+    <t>"6"</t>
+  </si>
+  <si>
+    <t>冲锋击退敌人</t>
+  </si>
+  <si>
+    <t>"1","2","30017"</t>
+  </si>
+  <si>
+    <t>冲锋创建子弹</t>
+  </si>
+  <si>
+    <t>"1005","1003"</t>
+  </si>
+  <si>
+    <t>冲锋范围伤害</t>
+  </si>
+  <si>
+    <t>"-40"</t>
+  </si>
+  <si>
+    <t>改变移动速度</t>
+  </si>
+  <si>
+    <t>"1000","60000"</t>
+  </si>
+  <si>
+    <t>禁止移动</t>
+  </si>
+  <si>
+    <t>"1004","1"</t>
+  </si>
+  <si>
+    <t>禁止释放技能</t>
+  </si>
+  <si>
+    <t>"1005","1"</t>
+  </si>
+  <si>
+    <t>禁止转向</t>
+  </si>
+  <si>
+    <t>"1006","1"</t>
   </si>
 </sst>
 </file>
@@ -1062,171 +1109,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G3:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.60909090909091" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6272727272727" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8545454545455" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.8727272727273" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25454545454545" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3727272727273" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="3:7">
-      <c r="C6" s="2">
-        <f>D6*100+E6</f>
-        <v>101</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="3:7">
-      <c r="C7" s="2">
-        <f>D7*100+E7</f>
-        <v>102</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.60909090909091" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="19" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7272727272727" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
@@ -1234,43 +1129,273 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" ht="16.5" spans="1:3">
+    <row r="2" ht="16.5" spans="1:4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:4">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:4">
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="3:6">
+      <c r="C6" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="3:3">
-      <c r="C6" s="2"/>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="1">
+        <v>1007</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="1">
+        <v>1009</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="1">
+        <v>10055</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="1">
+        <v>10058</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="1">
+        <v>10059</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="1">
+        <v>10060</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
